--- a/data/trans_bre/P35-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P35-Edad-trans_bre.xlsx
@@ -649,7 +649,7 @@
         <v>0.1705512775061238</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.7068547529423954</v>
+        <v>0.7068547529423952</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.131053651564401</v>
+        <v>-2.667063851532073</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>4.728630806272307</v>
+        <v>4.937711097872901</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.769425264775545</v>
+        <v>-2.834060486566186</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1.707216627269736</v>
+        <v>2.764203812376761</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.3363064435294882</v>
+        <v>-0.4274596567244034</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6203271229145554</v>
+        <v>0.6355354378879048</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.2162537116665946</v>
+        <v>-0.2291315262294534</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.07065953780140238</v>
+        <v>0.1087955676194148</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.601066327835813</v>
+        <v>3.220321606430586</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>12.4447781862624</v>
+        <v>12.72432404485672</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5.812359467540882</v>
+        <v>5.990769575134788</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>19.40615785386435</v>
+        <v>19.44979794950395</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.075416873989482</v>
+        <v>0.9467128169403399</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>3.242287068217979</v>
+        <v>3.280034279114436</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.7845639666022616</v>
+        <v>0.7925973694644175</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1.513153670445833</v>
+        <v>1.601451743331073</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>11.27537634122159</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-0.627641520030911</v>
+        <v>-0.6276415200309138</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>1.601044145334853</v>
@@ -749,7 +749,7 @@
         <v>0.8747964438433461</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.02489652910863996</v>
+        <v>-0.02489652910864007</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>3.421538297709786</v>
+        <v>3.589881092461136</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>3.331572705943884</v>
+        <v>3.647205145404714</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>6.664923931539341</v>
+        <v>7.11195364791085</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-7.037452854745559</v>
+        <v>-7.283029012509064</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.694225089184471</v>
+        <v>0.6430366110444761</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2251395172213656</v>
+        <v>0.235752608765848</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4363460936716315</v>
+        <v>0.4585726977832216</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.2367885036671896</v>
+        <v>-0.2506012272199114</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>9.517877407286159</v>
+        <v>9.494688416913585</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>12.1745804122301</v>
+        <v>12.27314733462987</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>15.66378051902652</v>
+        <v>15.69927151075758</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>5.389778386837748</v>
+        <v>5.58610436364637</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>3.197375935942987</v>
+        <v>3.052718870148798</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.095598876419925</v>
+        <v>1.084515992288596</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.433603871099558</v>
+        <v>1.482570912711852</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.2478798800012721</v>
+        <v>0.2666912035652896</v>
       </c>
     </row>
     <row r="10">
@@ -849,7 +849,7 @@
         <v>0.3839350267686257</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.2480585180514611</v>
+        <v>0.248058518051461</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.5812983470249414</v>
+        <v>-0.5054757686471216</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>5.903881736933471</v>
+        <v>5.631714992964891</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2.878871934970237</v>
+        <v>3.536249221965408</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1.515025422121447</v>
+        <v>1.031481927362977</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.05550003763794852</v>
+        <v>-0.07844337125141264</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2950476176922431</v>
+        <v>0.2913700577828103</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.130019152979171</v>
+        <v>0.1521546639691829</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.04828485782762979</v>
+        <v>0.04212119239396617</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>7.021641323648296</v>
+        <v>7.222490562407115</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>15.30956363058824</v>
+        <v>14.69169111311416</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>12.10006200955032</v>
+        <v>12.81928580620625</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>11.19934806141235</v>
+        <v>10.95892398164291</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.938175259624572</v>
+        <v>0.9386613849501083</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9976210231224434</v>
+        <v>0.9732030400614495</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.6820550488544552</v>
+        <v>0.7317501962612134</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.4784394927860666</v>
+        <v>0.4756379789958248</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>3.985302477381275</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>3.162775749190599</v>
+        <v>3.162775749190627</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3429264514714462</v>
@@ -949,7 +949,7 @@
         <v>0.1274094840881831</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.09181972616476829</v>
+        <v>0.09181972616476912</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.00412757676334005</v>
+        <v>0.5044383383189047</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>4.769725846636804</v>
+        <v>3.413918384931471</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-0.9528177974433871</v>
+        <v>-1.507236097593427</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-1.666513083959899</v>
+        <v>-1.354561733279315</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.006917416558156097</v>
+        <v>0.02895654798386951</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1757892520559493</v>
+        <v>0.1297484385513131</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.02770429298540356</v>
+        <v>-0.04336028104816349</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.04512498707634523</v>
+        <v>-0.03613127608374786</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>9.698064924788264</v>
+        <v>9.822109255044753</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>15.79673614324393</v>
+        <v>15.10745599648117</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>9.228787712356304</v>
+        <v>9.43061510203424</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>7.710574796183138</v>
+        <v>8.456975974186223</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.8313465692961759</v>
+        <v>0.838762978915369</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.7266600194219727</v>
+        <v>0.7002727281104648</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3241939458268449</v>
+        <v>0.333180436650866</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.2461111674820936</v>
+        <v>0.2722216535758362</v>
       </c>
     </row>
     <row r="16">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-10.76597543182123</v>
+        <v>-10.53498683020364</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.187553975533294</v>
+        <v>-2.90316841268946</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2047353341067345</v>
+        <v>0.9097974999709826</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-3.822587792167975</v>
+        <v>-4.373382103788694</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.2652350045358893</v>
+        <v>-0.2660601279153744</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.04545487482215517</v>
+        <v>-0.05581483011775495</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.004392476379982852</v>
+        <v>0.01917011835449347</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.08288071287742438</v>
+        <v>-0.09385342757377495</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.666955231930201</v>
+        <v>2.963346593727302</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>12.51291497590866</v>
+        <v>11.86057263520864</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>13.90103644270579</v>
+        <v>13.95141322876281</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>5.97912339952804</v>
+        <v>5.589076807303784</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.08857745104926394</v>
+        <v>0.09175775459765659</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2896537489002068</v>
+        <v>0.2802324534082776</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3782541353548468</v>
+        <v>0.3775679222735283</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.1443994916510333</v>
+        <v>0.1344209832337098</v>
       </c>
     </row>
     <row r="19">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-7.274138190424344</v>
+        <v>-5.821176238588958</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-4.33926917183509</v>
+        <v>-4.205532895440416</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-3.540780882864154</v>
+        <v>-4.039703236270381</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-6.148039006132286</v>
+        <v>-5.97445061888814</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.1487437300350605</v>
+        <v>-0.1197949077850676</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.07536370414125469</v>
+        <v>-0.07253641048091058</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.06125332633097134</v>
+        <v>-0.07258574224476168</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.118120780714665</v>
+        <v>-0.117978418234232</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>8.226029739475514</v>
+        <v>9.843734168199459</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>12.11174840877779</v>
+        <v>12.43621334088546</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>11.76248957494957</v>
+        <v>11.72425559604169</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>4.876708496582345</v>
+        <v>5.13598337836105</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.1958660790101411</v>
+        <v>0.2357585563867454</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2464667521386272</v>
+        <v>0.2653428021262106</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2289363838391614</v>
+        <v>0.2347486307745724</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.1079347929717132</v>
+        <v>0.11335827058534</v>
       </c>
     </row>
     <row r="22">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-14.34156648127846</v>
+        <v>-15.08614405191274</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-13.2023715626812</v>
+        <v>-13.71425870778965</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-8.616924075602455</v>
+        <v>-8.954345413603718</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-8.409306056471188</v>
+        <v>-7.570443792228349</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.2500715029865502</v>
+        <v>-0.2598099298827981</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.2196356621791739</v>
+        <v>-0.2249165131895864</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.1651138978349618</v>
+        <v>-0.1712273286726883</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.1512277904873324</v>
+        <v>-0.1390015239180828</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.351418020326322</v>
+        <v>2.883538277901572</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>2.771715697386729</v>
+        <v>2.450931250170341</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>7.7397568861342</v>
+        <v>7.577084447038159</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>3.695965267735835</v>
+        <v>3.867650969314905</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.07587303225516064</v>
+        <v>0.05658527103639892</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.05232810699612783</v>
+        <v>0.04927032716025372</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1771619346950924</v>
+        <v>0.1767685729307893</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.07846736511819066</v>
+        <v>0.08038639506509034</v>
       </c>
     </row>
     <row r="25">
@@ -1337,7 +1337,7 @@
         <v>6.945867349296048</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>3.497881695771948</v>
+        <v>3.497881695771943</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2317893317649524</v>
@@ -1349,7 +1349,7 @@
         <v>0.2490279139164491</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>0.1017411834756208</v>
+        <v>0.1017411834756206</v>
       </c>
     </row>
     <row r="26">
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>1.939739534385224</v>
+        <v>2.116682764658133</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>6.097380911072184</v>
+        <v>6.13306234473175</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>4.682045696538029</v>
+        <v>4.722286299877386</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1.478011790685869</v>
+        <v>1.353412667870658</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.1047756443814707</v>
+        <v>0.1154246350310469</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2229440517313927</v>
+        <v>0.2259809293727562</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1597508726942548</v>
+        <v>0.1590428054457007</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.04200137714637107</v>
+        <v>0.03873285162510505</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>6.041765194379903</v>
+        <v>6.010287038515638</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>10.55682178182887</v>
+        <v>10.60688338853202</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>9.392496253495153</v>
+        <v>9.27128887295517</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>5.914585696299598</v>
+        <v>5.675350201111053</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.3669462682954729</v>
+        <v>0.3655106662210781</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.4300106384246101</v>
+        <v>0.4230348412393938</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3514262754807915</v>
+        <v>0.3476623465123873</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.1813838635124092</v>
+        <v>0.171619835789784</v>
       </c>
     </row>
     <row r="28">
